--- a/Specialty4.xlsx
+++ b/Specialty4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2course\ООП\Інструменти і технології програмування\Лабораторна 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED15AC2-9F71-4BE8-A527-72EA91D1033C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B69E08-AF55-4F77-B488-FBE1262498BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05A295B0-E090-4251-AB0C-AF6625BED2FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Спеціальність 6.4" sheetId="1" r:id="rId1"/>
+    <sheet name="122 Комп'ютерні науки" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Освітня программа 1</t>
   </si>
@@ -45,31 +45,31 @@
     <t>Університет 1</t>
   </si>
   <si>
-    <t>kok 1</t>
-  </si>
-  <si>
     <t>Країна 1</t>
   </si>
   <si>
-    <t>баба</t>
-  </si>
-  <si>
-    <t>нова</t>
-  </si>
-  <si>
-    <t>njn</t>
-  </si>
-  <si>
     <t>rori</t>
   </si>
   <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>vav</t>
-  </si>
-  <si>
-    <t>piiiiii</t>
+    <t>Комп'ютерних наук та кібернетики</t>
+  </si>
+  <si>
+    <t>КНУ Шевченка</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>Прикладна математика</t>
+  </si>
+  <si>
+    <t>щ</t>
+  </si>
+  <si>
+    <t>Англія</t>
+  </si>
+  <si>
+    <t>Інформатика</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -454,30 +454,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
